--- a/sources/case/AttendanceStatisticsPC.xlsx
+++ b/sources/case/AttendanceStatisticsPC.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandanzhan/Workspace/QiFeiApi/sources/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -142,24 +142,9 @@
     <t>emp_id</t>
   </si>
   <si>
-    <t>7e2f1608-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e2fc6f6-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e306cb1-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
-    <t>7e2dba5c-b2e4-11e7-93d8-5254001aba5d</t>
-  </si>
-  <si>
     <t>/attendance/v1/attendances/employee/month-statistic/{emp_id}?year=2017&amp;month=08</t>
   </si>
   <si>
-    <t>[{"location":"兆维小区","off_work_time":"2017-08-01T18:00:00+08:00","attendance_date":"2017-08-01T00:00:00Z","to_work_time":"2017-08-01T08:51:00+08:00","status":[]},{"location":"兆维小区","off_work_time":"2017-08-02T18:30:00+08:00","attendance_date":"2017-08-02T00:00:00Z","to_work_time":"2017-08-02T09:30:00+08:00","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-03T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-04T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-07T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-10T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -172,9 +157,6 @@
     <t>{"business_leave_duration":2,"annual_leave_duration":0,"sick_leave_duration":0,"work_day_off_duration":0,"others":0}</t>
   </si>
   <si>
-    <t>[{"location":"兆维小区","off_work_time":"2017-08-01T19:00:00+08:00","attendance_date":"2017-08-01T00:00:00Z","to_work_time":"2017-08-01T10:01:00+08:00","status":[1,3]},{"location":"兆维小区","off_work_time":"2017-08-02T19:00:00+08:00","attendance_date":"2017-08-02T00:00:00Z","to_work_time":"2017-08-02T11:01:00+08:00","status":[1,8]},{"location":"兆维小区","off_work_time":"2017-08-03T18:51:00+08:00","attendance_date":"2017-08-03T00:00:00Z","to_work_time":"2017-08-03T10:00:00+08:00","status":[2]},{"location":"兆维小区","off_work_time":"2017-08-04T17:51:00+08:00","attendance_date":"2017-08-04T00:00:00Z","to_work_time":"2017-08-04T09:51:00+08:00","status":[2,8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[3]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[3]},{"location":"兆维小区","off_work_time":"2017-08-07T19:30:00+08:00","attendance_date":"2017-08-07T00:00:00Z","to_work_time":"2017-08-07T10:00:00+08:00","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[7]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[7]},{"location":"兆维小区","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-10T00:00:00Z","to_work_time":"2017-08-10T10:00:00+08:00","status":[5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
-  </si>
-  <si>
     <t>33.5</t>
   </si>
   <si>
@@ -190,25 +172,52 @@
     <t>18</t>
   </si>
   <si>
-    <t>[{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-01T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[7]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-02T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5,4,6]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-03T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-04T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-07T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[4]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-10T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
-  </si>
-  <si>
-    <t>[{"location":"兆维小区","off_work_time":"2017-08-01T17:51:00+08:00","attendance_date":"2017-08-01T00:00:00Z","to_work_time":"2017-08-01T08:51:00+08:00","status":[2]},{"location":"兆维小区","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-02T00:00:00Z","to_work_time":"2017-08-02T09:00:00+08:00","status":[5,3]},{"location":"","off_work_time":"2017-08-03T18:30:00+08:00","attendance_date":"2017-08-03T00:00:00Z","to_work_time":"2017-08-03T09:30:00+08:00","status":[3]},{"location":"兆维小区","off_work_time":"2017-08-04T18:19:00+08:00","attendance_date":"2017-08-04T00:00:00Z","to_work_time":"2017-08-04T09:20:00+08:00","status":[2]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[3]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"兆维小区","off_work_time":"2017-08-07T18:30:00+08:00","attendance_date":"2017-08-07T00:00:00Z","to_work_time":"2017-08-07T09:31:00+08:00","status":[1]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5,8,8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-10T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"2017-08-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
-  </si>
-  <si>
     <t>{"business_leave_duration":0,"annual_leave_duration":33.5,"sick_leave_duration":0,"work_day_off_duration":14.5,"others":0}</t>
+  </si>
+  <si>
+    <t>[{"location":"兆维小区","off_work_time":"{Date.LastMonth}-01T17:51:00+08:00","attendance_date":"{Date.LastMonth}-01T00:00:00Z","to_work_time":"{Date.LastMonth}-01T08:51:00+08:00","status":[2]},{"location":"兆维小区","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-02T00:00:00Z","to_work_time":"{Date.LastMonth}-02T09:00:00+08:00","status":[5,3]},{"location":"","off_work_time":"{Date.LastMonth}-03T18:30:00+08:00","attendance_date":"{Date.LastMonth}-03T00:00:00Z","to_work_time":"{Date.LastMonth}-03T09:30:00+08:00","status":[3]},{"location":"兆维小区","off_work_time":"{Date.LastMonth}-04T18:19:00+08:00","attendance_date":"{Date.LastMonth}-04T00:00:00Z","to_work_time":"{Date.LastMonth}-04T09:20:00+08:00","status":[2]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[3]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"兆维小区","off_work_time":"{Date.LastMonth}-07T18:30:00+08:00","attendance_date":"{Date.LastMonth}-07T00:00:00Z","to_work_time":"{Date.LastMonth}-07T09:31:00+08:00","status":[1]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5,8,8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-10T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
+  </si>
+  <si>
+    <t>[{"location":"兆维小区","off_work_time":"{Date.LastMonth}-01T18:00:00+08:00","attendance_date":"{Date.LastMonth}-01T00:00:00Z","to_work_time":"{Date.LastMonth}-01T08:51:00+08:00","status":[]},{"location":"兆维小区","off_work_time":"{Date.LastMonth}-02T18:30:00+08:00","attendance_date":"{Date.LastMonth}-02T00:00:00Z","to_work_time":"{Date.LastMonth}-02T09:30:00+08:00","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-03T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-04T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-07T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-10T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
+  </si>
+  <si>
+    <t>[{"location":"兆维小区","off_work_time":"{Date.LastMonth}-01T19:00:00+08:00","attendance_date":"{Date.LastMonth}-01T00:00:00Z","to_work_time":"{Date.LastMonth}-01T10:01:00+08:00","status":[1,3]},{"location":"兆维小区","off_work_time":"{Date.LastMonth}-02T19:00:00+08:00","attendance_date":"{Date.LastMonth}-02T00:00:00Z","to_work_time":"{Date.LastMonth}-02T11:01:00+08:00","status":[1,8]},{"location":"兆维小区","off_work_time":"{Date.LastMonth}-03T18:51:00+08:00","attendance_date":"{Date.LastMonth}-03T00:00:00Z","to_work_time":"{Date.LastMonth}-03T10:00:00+08:00","status":[2]},{"location":"兆维小区","off_work_time":"{Date.LastMonth}-04T17:51:00+08:00","attendance_date":"{Date.LastMonth}-04T00:00:00Z","to_work_time":"{Date.LastMonth}-04T09:51:00+08:00","status":[2,8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[3]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[3]},{"location":"兆维小区","off_work_time":"{Date.LastMonth}-07T19:30:00+08:00","attendance_date":"{Date.LastMonth}-07T00:00:00Z","to_work_time":"{Date.LastMonth}-07T10:00:00+08:00","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[7]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[7]},{"location":"兆维小区","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-10T00:00:00Z","to_work_time":"{Date.LastMonth}-10T10:00:00+08:00","status":[5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
+  </si>
+  <si>
+    <t>[{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-01T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[7]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-02T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5,4,6]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-03T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-04T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[8]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-05T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-06T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-07T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[4]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-08T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-09T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-10T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-11T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-12T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-13T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-14T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-15T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-16T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-17T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-18T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-19T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-20T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-21T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-22T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-23T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-24T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-25T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-26T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-27T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-28T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-29T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-30T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]},{"location":"","off_work_time":"0001-01-01T00:00:00Z","attendance_date":"{Date.LastMonth}-31T00:00:00Z","to_work_time":"0001-01-01T00:00:00Z","status":[5,5]}]</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_16.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_17.employee_id}</t>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_13.employee_id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$csv{data.Auth.user_15.employee_id}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,13 +246,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -518,16 +530,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="88" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -547,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -558,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -568,7 +580,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -576,17 +590,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="59.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="15.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,39 +608,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -635,27 +650,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.1640625" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" customWidth="1"/>
-    <col min="16" max="16" width="28.6640625" customWidth="1"/>
-    <col min="17" max="17" width="66.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="13.125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="14.875" customWidth="1"/>
+    <col min="16" max="16" width="28.625" customWidth="1"/>
+    <col min="17" max="17" width="66.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -734,34 +749,34 @@
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -811,10 +826,10 @@
         <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -822,7 +837,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
@@ -840,7 +855,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>31</v>
@@ -861,13 +876,13 @@
         <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -887,7 +902,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>28</v>
@@ -905,22 +920,23 @@
         <v>31</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/AttendanceStatisticsPC.xlsx
+++ b/sources/case/AttendanceStatisticsPC.xlsx
@@ -17,16 +17,11 @@
     <sheet name="Expectations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
   <si>
     <t>CaseID</t>
   </si>
@@ -140,9 +135,6 @@
   </si>
   <si>
     <t>emp_id</t>
-  </si>
-  <si>
-    <t>/attendance/v1/attendances/employee/month-statistic/{emp_id}?year=2017&amp;month=08</t>
   </si>
   <si>
     <t>15</t>
@@ -199,13 +191,30 @@
   </si>
   <si>
     <t>$csv{data.Auth.user_15.employee_id}</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>{Date.Year}</t>
+  </si>
+  <si>
+    <t>/attendance/v1/attendances/employee/month-statistic/{emp_id}?year={year}&amp;month={month}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.TheLastMonth}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -219,6 +228,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -241,9 +257,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,55 +544,57 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="88" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -588,61 +607,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -651,292 +703,299 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="13.125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="14.875" customWidth="1"/>
-    <col min="16" max="16" width="28.625" customWidth="1"/>
-    <col min="17" max="17" width="66.625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="Q5" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/AttendanceStatisticsPC.xlsx
+++ b/sources/case/AttendanceStatisticsPC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -202,11 +202,11 @@
     <t>{Date.Year}</t>
   </si>
   <si>
-    <t>/attendance/v1/attendances/employee/month-statistic/{emp_id}?year={year}&amp;month={month}}</t>
+    <t>{Date.TheLastMonth}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{Date.TheLastMonth}</t>
+    <t>/attendance/v1/attendances/employee/month-statistic/{emp_id}?year={year}&amp;month={month}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -609,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -643,7 +643,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>58</v>
@@ -657,7 +657,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>58</v>
@@ -671,7 +671,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>58</v>
@@ -685,7 +685,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>58</v>
